--- a/data/long_razon/P23_7-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_7-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-43,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>131,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-77,79; 27,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-69,98; 79,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,16; 53,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 456,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 13,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 123,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>104,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 131,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 412,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 29,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,35; 68,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 56,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 207,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 109,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 32,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 29,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,4; 171,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 41,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 65,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 41,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 58,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 111,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 43,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 57,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 29,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 45,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 72,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 41,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 121,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 26,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 71,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 40,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 64,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,01; -2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 133,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 68,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 38,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,93; 62,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 39,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_7-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_7-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.4841873885347579</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2639202074877492</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1055955840345081</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3633686859290519</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2314729272565159</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.242618499334125</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1328572346504843</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3136750851988898</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3744314641307701</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1556024604512182</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1195604548677747</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.3422712773240107</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7856530319875794</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7004215673611246</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6863107693636424</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7726175207013041</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.638131645230872</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.008924977411601788</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5628103281954401</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.74200170582434</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6257824379188445</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3420122473271826</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4579896647773687</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.6589597738877283</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1943593153645438</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7348918770418073</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.181621711700279</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.5974620253961654</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6091881133680807</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>5.180344910412674</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.7069798662271722</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6664987151507272</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.06492095505055732</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.073707783437911</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4432421153392095</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.2212723238620635</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1918504787468867</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8351007862819094</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.205106794323536</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.07210067370660486</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.344688662338625</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1815925421059691</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.00971597092923</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1671172088065228</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.05955220219795939</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3761136195612478</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1.120306102816885</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.121336576090722</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.6167860033113873</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2035440640650315</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.04856352835641402</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6387221668576596</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6479484920141459</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.6199390473380154</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.03218179698465714</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3625011443362508</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4716661168515517</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2460278331337556</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.2246296788797971</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3662051236819635</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.433792140296658</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.360191976920873</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.508411660039007</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.373753662314876</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.232128856333687</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5379410782928646</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>3.088495317910497</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.192665380337893</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6295464511472989</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.706161344251557</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>3.062846422636425</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9911951557606541</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.1796902573508464</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2396912021152088</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0902146979211788</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.06729563062034791</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1360289252555521</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.76963033966734</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.04097703321126181</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1410393822466735</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.00909579677518764</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.138901916828474</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.02858293028845416</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.03107931668796706</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.31477682436536</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5770555739917905</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3964739227998566</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4173695539106677</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.436366709284758</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1732861990046694</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3844475083586975</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4771331401276908</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2893192472589994</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2200471794520424</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2795598010437949</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3225396839168563</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.056287456810665</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4133842823687113</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6998322759857637</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.9162714373461528</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2968633850250708</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.733011367542857</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4771744679834939</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4862814059004533</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.4050749367821538</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6182023633105287</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.417956282770171</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.48316041973702</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.05374836895031732</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01512418780406862</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3112104088462584</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2450507020983403</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4196078370315804</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.02706527373055906</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1640623773609955</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.6326741205892893</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1776802393336348</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.02192062222626138</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2404342005244865</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.414228435234119</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.419087802981753</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3570191221193154</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1495664018913473</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5265129083200886</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.009736134300933095</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2418462738924597</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2454584503997372</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.8078648942202376</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1143886579970797</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2042627658568459</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.08263813856243314</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.605943927141353</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4816909973701493</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5879309273192791</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.327020768914153</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2305061045558046</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.17632250989389</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3767634834450265</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6437408938751515</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.3199133651092021</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6188867143619498</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3242445935059663</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.8023524274818461</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.1267662313247127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.1690713421624616</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1246387074681432</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2242623320059774</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.4144300442293397</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.08895923871962073</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.4102411362485144</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.3016760678267262</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2666043773215767</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.133758133861373</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2586827552266088</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.2641630419751153</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.1142986681180914</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4833689565240665</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2806756995876093</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.3617670879353591</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6840439717919105</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4503379193445414</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.06494710134627758</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.1817595227385444</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1819785464958543</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3906075205551039</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.08215703273356241</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1500881394634777</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3768480358188037</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.5521597390655572</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.7775726566092692</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.090757398152937</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.02447730381637128</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.4683868712269948</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.170594910627385</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.286738811190227</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.088645287709604</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.2450609269881833</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.7243276181627681</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.8076617893956828</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.2721356744095292</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.2125898336784917</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.09326485607773631</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.4888418279319</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.3080595473169198</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.4251296978054498</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.5200743226531208</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.08216417576867525</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.5556623992562961</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.3477427109974073</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.2124894804738019</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2324109258066626</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4779135685050307</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.6127299914673484</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4991492077776291</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2665119583954114</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.4717244568887725</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6708287407379925</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.08604076756971425</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4466588410046655</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.4216495530850564</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5849266824666096</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1787301819938622</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.2491126798077117</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.229030423721881</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.5798762312812157</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.5014847156180386</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2.18557367826627</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.32021587413896</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>-0.05195017498122696</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.511868874110907</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.9636028390118847</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.41451763792629</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>-0.04890949378246163</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.727032339319127</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.9988977187244332</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.773469229400863</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.08654176816889661</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.01091272713142046</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2904575967436871</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.1566649968862871</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1490338260967835</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.3602797804498462</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.1374124954847724</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.04564290940060466</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1185471931067421</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1713994482527521</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.2122746522330594</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.1030514723783078</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3062833264238564</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2106035606719146</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.01612788696488134</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.3626054317879635</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.3202237258906166</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.130278501982062</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.09489305731293664</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2539124315721824</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2398185631108145</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.01467258625359596</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.0279468242169199</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2603767341289234</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.1684082590488744</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3273915281719366</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7047122698146298</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1077080894442965</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.04705784702110045</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.6490121342927377</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.4241987308244698</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2513808637049139</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.03679134555236769</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.3753127675175543</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.4468731083482189</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.06382346896262478</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
